--- a/biology/Médecine/Diagnostic_différentiel/Diagnostic_différentiel.xlsx
+++ b/biology/Médecine/Diagnostic_différentiel/Diagnostic_différentiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diagnostic_diff%C3%A9rentiel</t>
+          <t>Diagnostic_différentiel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic différentiel est une méthode permettant de différencier une maladie d'autres pathologies qui présentent des symptômes proches ou similaires. Ce processus vise à établir un diagnostic plus sûr via une approche méthodique qui prend en considération tant les éléments permettant d'exclure une maladie plutôt que ceux permettant de la confirmer. Le diagnostic différentiel peut aboutir à plusieurs hypothèses impossibles à départager à un instant donné, mais qui seront infirmées ou confirmées au cours du temps (évolution de la maladie) ou à l'aide d'examens complémentaires. 
 Ce diagnostic différentiel n'est pas exclusivement réservé aux professions médicales (médecins, pharmaciens, dentistes et sages-femmes). Il est aussi utilisé à des fins stratégiques de traitement ou d'orientation par d'autres professions paramédicales (kinésithérapeutes, orthophonistes,...), ou dans d'autres domaines de la santé comme les vétérinaires.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diagnostic_diff%C3%A9rentiel</t>
+          <t>Diagnostic_différentiel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thérapeute émet des hypothèses sur la base de ses observations, de l'observation du patient, de l'analyse des dires du patient (anamnèse) et, si nécessaire en fonction de son champ de compétence, des tests paracliniques complémentaires (examens biologique de laboratoire, radiographie, scanner, IRM, échographie, etc.), en deux étapes :
 il s'appuie d'abord sur des faits tels que les symptômes observables, les antécédents personnels et familiaux, le contexte socio-environnemental (par exemple, saison épidémique) ;
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diagnostic_diff%C3%A9rentiel</t>
+          <t>Diagnostic_différentiel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +566,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthode de diagnostic différentiel a initialement été proposée pour l'utilisation dans le diagnostic des troubles mentaux par Emil Kraepelin, pour établir des diagnostics plus précis qu'avec l'ancienne méthode plus souvent basée sur la Gestalt (impression du médecin fondée sur la vue des symptômes exprimés par son patient). Cette méthode dite aussi intuitive, reste licite tant qu'elle s'appuie sur une expérience réelle (familiarité concrète) du médecin avec la maladie en question.
-De nouveaux outils de diagnostic différentiel ou d'aide au diagnostic différentiel (dont informatiques ou en ligne[1]) sont apparus depuis la fin du XXe siècle (souvent prévus pour les anglophones)[réf. nécessaire]. Ils visent à aider le médecin à balayer les pistes possibles pour arriver, par élimination à un diagnostic plus fiable. Pour les maladies dermatologiques, des sites contenant des bases de données photographiques aident le médecin à faire son diagnostic différentiel[2].
+De nouveaux outils de diagnostic différentiel ou d'aide au diagnostic différentiel (dont informatiques ou en ligne) sont apparus depuis la fin du XXe siècle (souvent prévus pour les anglophones)[réf. nécessaire]. Ils visent à aider le médecin à balayer les pistes possibles pour arriver, par élimination à un diagnostic plus fiable. Pour les maladies dermatologiques, des sites contenant des bases de données photographiques aident le médecin à faire son diagnostic différentiel.
 Le diagnostic différentiel est mal compris du public. Et s'il est souvent utilisé dans la série télévisée Dr House, c'est de façon irréaliste (aptitude à saisir d'emblée les diagnostics les plus rares).
 </t>
         </is>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diagnostic_diff%C3%A9rentiel</t>
+          <t>Diagnostic_différentiel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le patient présente les symptômes A et B. Le médecin crée une liste de maladies qui comprennent les symptômes A et B. 
 Voici trois maladies qui impliquent ces deux symptômes :
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diagnostic_diff%C3%A9rentiel</t>
+          <t>Diagnostic_différentiel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,10 +639,12 @@
           <t>Traitement informatique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des logiciels peuvent être utilisés pour effectuer un diagnostic différentiel. Certains sont conçus pour traiter des problèmes médicaux spécifiques comme la schizophrénie[3] ou la maladie de Lyme[4]. 
-D'autres systèmes, tels que DiagnosisPro[5], peuvent proposer une liste de diagnostics possibles d’après les symptômes du patient ou les résultats diagnostiques couvrant des milliers de maladies en médecine interne et en pédiatrie.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des logiciels peuvent être utilisés pour effectuer un diagnostic différentiel. Certains sont conçus pour traiter des problèmes médicaux spécifiques comme la schizophrénie ou la maladie de Lyme. 
+D'autres systèmes, tels que DiagnosisPro, peuvent proposer une liste de diagnostics possibles d’après les symptômes du patient ou les résultats diagnostiques couvrant des milliers de maladies en médecine interne et en pédiatrie.
 </t>
         </is>
       </c>
